--- a/Sem6/Solid_State/Expt7/Book1.xlsx
+++ b/Sem6/Solid_State/Expt7/Book1.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amukh\OneDrive\Desktop\Lab Reports\Sem6\Solid_State\Expt7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{31709475-44FF-45C9-99A7-272E33F6010F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE4BE50-DFA6-4132-B3D1-FEC4E6EC0FAB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{2BE3F164-4763-464B-9D4A-4D50098D6A15}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" activeTab="5" xr2:uid="{2BE3F164-4763-464B-9D4A-4D50098D6A15}"/>
   </bookViews>
   <sheets>
-    <sheet name="white1" sheetId="1" r:id="rId1"/>
-    <sheet name="pink1" sheetId="2" r:id="rId2"/>
-    <sheet name="green1" sheetId="3" r:id="rId3"/>
+    <sheet name="white" sheetId="1" r:id="rId1"/>
+    <sheet name="pink" sheetId="2" r:id="rId2"/>
+    <sheet name="green" sheetId="3" r:id="rId3"/>
+    <sheet name="red" sheetId="4" r:id="rId4"/>
+    <sheet name="yellow" sheetId="5" r:id="rId5"/>
+    <sheet name="indoor" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,12 +30,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="7">
   <si>
     <t>V</t>
   </si>
   <si>
     <t>$I\;(\mu A)$</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Pink</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Yellow</t>
   </si>
 </sst>
 </file>
@@ -40,7 +58,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -77,15 +95,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -183,7 +213,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>white1!$A$2:$A$20</c:f>
+              <c:f>white!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -249,7 +279,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>white1!$B$2:$B$20</c:f>
+              <c:f>white!$B$2:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -553,6 +583,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>pink!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>$I\;(\mu A)$</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -579,56 +620,59 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>pink1!$A$2:$A$18</c:f>
+              <c:f>pink!$A$2:$A$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0.73099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.69299999999999995</c:v>
+                  <c:v>0.69599999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.61499999999999999</c:v>
+                  <c:v>0.66100000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.57899999999999996</c:v>
+                  <c:v>0.626</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.53</c:v>
+                  <c:v>0.59099999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>0.55600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.44</c:v>
+                  <c:v>0.52100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.42499999999999999</c:v>
+                  <c:v>0.48599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.34</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.3</c:v>
+                  <c:v>0.41499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.28399999999999997</c:v>
+                  <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.26100000000000001</c:v>
+                  <c:v>0.34499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.22</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.20399999999999999</c:v>
+                  <c:v>0.27500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.18</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>0.20499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>0.17</c:v>
                 </c:pt>
               </c:numCache>
@@ -636,57 +680,60 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>pink1!$B$2:$B$18</c:f>
+              <c:f>pink!$B$2:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>10.199999999999999</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>82</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>212</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>264</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>330</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>366</c:v>
+                  <c:v>292</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>432</c:v>
+                  <c:v>332</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>447</c:v>
+                  <c:v>388</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>524</c:v>
+                  <c:v>418</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>556</c:v>
+                  <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>568</c:v>
+                  <c:v>502</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>584</c:v>
+                  <c:v>554</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>611</c:v>
+                  <c:v>589</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>621</c:v>
+                  <c:v>592</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>635</c:v>
+                  <c:v>620</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>641</c:v>
+                  <c:v>596</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>637</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -694,7 +741,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-67F4-4EAB-BA40-419FEF447128}"/>
+              <c16:uniqueId val="{00000000-578A-4620-8006-36B91FE66B71}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -706,11 +753,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="908150143"/>
-        <c:axId val="921661007"/>
+        <c:axId val="624081855"/>
+        <c:axId val="618678783"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="908150143"/>
+        <c:axId val="624081855"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -730,7 +777,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -767,12 +814,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="921661007"/>
+        <c:crossAx val="618678783"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="921661007"/>
+        <c:axId val="618678783"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -829,7 +876,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="908150143"/>
+        <c:crossAx val="624081855"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -957,114 +1004,96 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>green1!$A$2:$A$17</c:f>
+              <c:f>green!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.68799999999999994</c:v>
+                  <c:v>0.52100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.69099999999999995</c:v>
+                  <c:v>0.48099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.56799999999999995</c:v>
+                  <c:v>0.441</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.58799999999999997</c:v>
+                  <c:v>0.40200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5</c:v>
+                  <c:v>0.36099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.51700000000000002</c:v>
+                  <c:v>0.32200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.59899999999999998</c:v>
+                  <c:v>0.28199999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.48899999999999999</c:v>
+                  <c:v>0.24199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.47599999999999998</c:v>
+                  <c:v>0.20200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.42199999999999999</c:v>
+                  <c:v>0.16200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.28499999999999998</c:v>
+                  <c:v>0.124</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.40200000000000002</c:v>
+                  <c:v>8.2000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.27800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.29499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.28899999999999998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.28100000000000003</c:v>
+                  <c:v>4.3999999999999997E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>green1!$B$2:$B$17</c:f>
+              <c:f>green!$B$2:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>101.964</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>83.968999999999994</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>280.16300000000001</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>246.98699999999999</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>372.66199999999998</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>349.10599999999999</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>238.96799999999999</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>372.63099999999997</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>385.76499999999999</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>473.32100000000003</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>567.63800000000003</c:v>
+                  <c:v>246</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>454.43299999999999</c:v>
+                  <c:v>243</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>557.03899999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>559.995</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>553.09299999999996</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>554.42200000000003</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1256,6 +1285,761 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>red!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>$I\;(\mu A)$</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>red!$A$2:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.55300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.436</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.24299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.20399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.16600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.128</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.8999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.9000000000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>red!$B$2:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>342</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-079F-4CBA-BB10-9E6E84842247}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="624053055"/>
+        <c:axId val="618811487"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="624053055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="618811487"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="618811487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="624053055"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>yellow!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.71499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.51300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.47199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.432</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.22900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>yellow!$B$2:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>651</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>674</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>759</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>777</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>798</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>822</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>831</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-64A3-449C-B46A-57BE138F31C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="615369967"/>
+        <c:axId val="618813567"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="615369967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="618813567"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="618813567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="615369967"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1376,6 +2160,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2924,20 +3788,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>260839</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>90854</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>55685</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>55685</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>565639</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>108439</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>360485</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>73270</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2969,23 +4865,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>272562</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>90854</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>43963</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>55684</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>577362</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>108439</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>348763</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>73269</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC39C6F0-9D02-444F-8B5E-6F2160DF6681}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C94FC1E-FEE4-4612-9670-63A759EE47A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3010,16 +4906,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>102576</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>67408</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>73268</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>61547</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>407376</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>84993</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142628</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>117231</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3027,6 +4923,88 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED1E5CEB-9EDD-49AC-B3EF-9E584171E0EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04080574-7C77-4FC9-B152-DBE8E1DF1C04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>515620</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAC6DBBA-A38A-4109-A54E-49C1AB42D9B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3346,8 +5324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA1A4E6-6E7F-440E-B2CE-8E12D919AC5E}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B20"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3525,10 +5503,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E60AECA-6933-4117-8BF7-AB71936215FB}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection sqref="A1:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3536,7 +5514,7 @@
     <col min="2" max="2" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3544,452 +5522,172 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
         <v>0.73099999999999998</v>
       </c>
       <c r="B2" s="4">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="C2" s="2">
-        <f>F2-G2*I2^(H2*A2)</f>
-        <v>10.182193727694539</v>
-      </c>
-      <c r="D2" s="3">
-        <f>ROUND(C2,0)</f>
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>893.56500000000005</v>
-      </c>
-      <c r="G2">
-        <v>172.822</v>
-      </c>
-      <c r="H2">
-        <v>2.2318699999999998</v>
-      </c>
-      <c r="I2">
-        <v>2.7182810000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>0.69299999999999995</v>
+        <v>7</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>0.69599999999999995</v>
       </c>
       <c r="B3" s="4">
-        <v>82</v>
-      </c>
-      <c r="C3" s="2">
-        <f t="shared" ref="C3:C17" si="0">F3-G3*I3^(H3*A3)</f>
-        <v>82.013699618639066</v>
-      </c>
-      <c r="D3" s="3">
-        <f t="shared" ref="D3:D17" si="1">ROUND(C3,0)</f>
-        <v>82</v>
-      </c>
-      <c r="F3">
-        <v>893.56500000000005</v>
-      </c>
-      <c r="G3">
-        <v>172.822</v>
-      </c>
-      <c r="H3">
-        <v>2.2318699999999998</v>
-      </c>
-      <c r="I3">
-        <v>2.7182810000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>0.61499999999999999</v>
+        <v>91</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>0.66100000000000003</v>
       </c>
       <c r="B4" s="4">
-        <v>212</v>
-      </c>
-      <c r="C4" s="2">
-        <f t="shared" si="0"/>
-        <v>211.67947302201185</v>
-      </c>
-      <c r="D4" s="3">
-        <f t="shared" si="1"/>
-        <v>212</v>
-      </c>
-      <c r="F4">
-        <v>893.56500000000005</v>
-      </c>
-      <c r="G4">
-        <v>172.822</v>
-      </c>
-      <c r="H4">
-        <v>2.2318699999999998</v>
-      </c>
-      <c r="I4">
-        <v>2.7182810000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>0.57899999999999996</v>
+        <v>145</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>0.626</v>
       </c>
       <c r="B5" s="4">
-        <v>264</v>
-      </c>
-      <c r="C5" s="2">
-        <f t="shared" si="0"/>
-        <v>264.32389424642713</v>
-      </c>
-      <c r="D5" s="3">
-        <f t="shared" si="1"/>
-        <v>264</v>
-      </c>
-      <c r="F5">
-        <v>893.56500000000005</v>
-      </c>
-      <c r="G5">
-        <v>172.822</v>
-      </c>
-      <c r="H5">
-        <v>2.2318699999999998</v>
-      </c>
-      <c r="I5">
-        <v>2.7182810000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>0.53</v>
+        <v>211</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>0.59099999999999997</v>
       </c>
       <c r="B6" s="4">
-        <v>330</v>
-      </c>
-      <c r="C6" s="2">
-        <f t="shared" si="0"/>
-        <v>329.50935805228744</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" si="1"/>
-        <v>330</v>
-      </c>
-      <c r="F6">
-        <v>893.56500000000005</v>
-      </c>
-      <c r="G6">
-        <v>172.822</v>
-      </c>
-      <c r="H6">
-        <v>2.2318699999999998</v>
-      </c>
-      <c r="I6">
-        <v>2.7182810000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>0.5</v>
+        <v>218</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>0.55600000000000005</v>
       </c>
       <c r="B7" s="4">
-        <v>366</v>
-      </c>
-      <c r="C7" s="2">
-        <f t="shared" si="0"/>
-        <v>366.03970174686037</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" si="1"/>
-        <v>366</v>
-      </c>
-      <c r="F7">
-        <v>893.56500000000005</v>
-      </c>
-      <c r="G7">
-        <v>172.822</v>
-      </c>
-      <c r="H7">
-        <v>2.2318699999999998</v>
-      </c>
-      <c r="I7">
-        <v>2.7182810000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>0.44</v>
+        <v>292</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>0.52100000000000002</v>
       </c>
       <c r="B8" s="4">
-        <v>432</v>
-      </c>
-      <c r="C8" s="2">
-        <f t="shared" si="0"/>
-        <v>432.15608656695332</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="1"/>
-        <v>432</v>
-      </c>
-      <c r="F8">
-        <v>893.56500000000005</v>
-      </c>
-      <c r="G8">
-        <v>172.822</v>
-      </c>
-      <c r="H8">
-        <v>2.2318699999999998</v>
-      </c>
-      <c r="I8">
-        <v>2.7182810000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>0.42499999999999999</v>
+        <v>332</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>0.48599999999999999</v>
       </c>
       <c r="B9" s="4">
-        <v>447</v>
-      </c>
-      <c r="C9" s="2">
-        <f t="shared" si="0"/>
-        <v>447.34744525804297</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="1"/>
-        <v>447</v>
-      </c>
-      <c r="F9">
-        <v>893.56500000000005</v>
-      </c>
-      <c r="G9">
-        <v>172.822</v>
-      </c>
-      <c r="H9">
-        <v>2.2318699999999998</v>
-      </c>
-      <c r="I9">
-        <v>2.7182810000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>0.34</v>
+        <v>388</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>0.45</v>
       </c>
       <c r="B10" s="4">
-        <v>524</v>
-      </c>
-      <c r="C10" s="2">
-        <f t="shared" si="0"/>
-        <v>524.45388188641959</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" si="1"/>
-        <v>524</v>
-      </c>
-      <c r="F10">
-        <v>893.56500000000005</v>
-      </c>
-      <c r="G10">
-        <v>172.822</v>
-      </c>
-      <c r="H10">
-        <v>2.2318699999999998</v>
-      </c>
-      <c r="I10">
-        <v>2.7182810000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>0.3</v>
+        <v>418</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>0.41499999999999998</v>
       </c>
       <c r="B11" s="4">
-        <v>556</v>
-      </c>
-      <c r="C11" s="2">
-        <f t="shared" si="0"/>
-        <v>555.97809987666301</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="1"/>
-        <v>556</v>
-      </c>
-      <c r="F11">
-        <v>893.56500000000005</v>
-      </c>
-      <c r="G11">
-        <v>172.822</v>
-      </c>
-      <c r="H11">
-        <v>2.2318699999999998</v>
-      </c>
-      <c r="I11">
-        <v>2.7182810000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>0.28399999999999997</v>
+        <v>460</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>0.38</v>
       </c>
       <c r="B12" s="4">
-        <v>568</v>
-      </c>
-      <c r="C12" s="2">
-        <f t="shared" si="0"/>
-        <v>567.82059181063869</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" si="1"/>
-        <v>568</v>
-      </c>
-      <c r="F12">
-        <v>893.56500000000005</v>
-      </c>
-      <c r="G12">
-        <v>172.822</v>
-      </c>
-      <c r="H12">
-        <v>2.2318699999999998</v>
-      </c>
-      <c r="I12">
-        <v>2.7182810000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>0.26100000000000001</v>
+        <v>502</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>0.34499999999999997</v>
       </c>
       <c r="B13" s="4">
-        <v>584</v>
-      </c>
-      <c r="C13" s="2">
-        <f t="shared" si="0"/>
-        <v>584.12009741655061</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="1"/>
-        <v>584</v>
-      </c>
-      <c r="F13">
-        <v>893.56500000000005</v>
-      </c>
-      <c r="G13">
-        <v>172.822</v>
-      </c>
-      <c r="H13">
-        <v>2.2318699999999998</v>
-      </c>
-      <c r="I13">
-        <v>2.7182810000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>0.22</v>
+        <v>554</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>0.31</v>
       </c>
       <c r="B14" s="4">
-        <v>611</v>
-      </c>
-      <c r="C14" s="2">
-        <f t="shared" si="0"/>
-        <v>611.17942806452379</v>
-      </c>
-      <c r="D14" s="3">
-        <f t="shared" si="1"/>
-        <v>611</v>
-      </c>
-      <c r="F14">
-        <v>893.56500000000005</v>
-      </c>
-      <c r="G14">
-        <v>172.822</v>
-      </c>
-      <c r="H14">
-        <v>2.2318699999999998</v>
-      </c>
-      <c r="I14">
-        <v>2.7182810000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>0.20399999999999999</v>
+        <v>589</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>0.27500000000000002</v>
       </c>
       <c r="B15" s="4">
-        <v>621</v>
-      </c>
-      <c r="C15" s="2">
-        <f t="shared" si="0"/>
-        <v>621.08546664805658</v>
-      </c>
-      <c r="D15" s="3">
-        <f t="shared" si="1"/>
-        <v>621</v>
-      </c>
-      <c r="F15">
-        <v>893.56500000000005</v>
-      </c>
-      <c r="G15">
-        <v>172.822</v>
-      </c>
-      <c r="H15">
-        <v>2.2318699999999998</v>
-      </c>
-      <c r="I15">
-        <v>2.7182810000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>0.18</v>
+        <v>592</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>0.24</v>
       </c>
       <c r="B16" s="4">
-        <v>635</v>
-      </c>
-      <c r="C16" s="2">
-        <f t="shared" si="0"/>
-        <v>635.29678430263721</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" si="1"/>
-        <v>635</v>
-      </c>
-      <c r="F16">
-        <v>893.56500000000005</v>
-      </c>
-      <c r="G16">
-        <v>172.822</v>
-      </c>
-      <c r="H16">
-        <v>2.2318699999999998</v>
-      </c>
-      <c r="I16">
-        <v>2.7182810000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+        <v>620</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="B17" s="4">
+        <v>596</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
         <v>0.17</v>
       </c>
-      <c r="B17" s="4">
-        <v>641</v>
-      </c>
-      <c r="C17" s="2">
-        <f t="shared" si="0"/>
-        <v>640.9971444549501</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" si="1"/>
-        <v>641</v>
-      </c>
-      <c r="F17">
-        <v>893.56500000000005</v>
-      </c>
-      <c r="G17">
-        <v>172.822</v>
-      </c>
-      <c r="H17">
-        <v>2.2318699999999998</v>
-      </c>
-      <c r="I17">
-        <v>2.7182810000000002</v>
+      <c r="B18" s="4">
+        <v>637</v>
       </c>
     </row>
   </sheetData>
@@ -4001,18 +5699,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46A82D07-2EE0-4C8A-8A07-C95F639E7679}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4020,456 +5718,1044 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
-        <v>0.68799999999999994</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="B2" s="4">
-        <v>101.964</v>
-      </c>
-      <c r="C2" s="2">
-        <f>F2-G2*I2^(H2*A2)</f>
-        <v>91.019737651731589</v>
-      </c>
-      <c r="D2" s="3">
-        <f>ROUND(C2,0)</f>
-        <v>91</v>
-      </c>
-      <c r="F2">
-        <v>893.56500000000005</v>
-      </c>
-      <c r="G2">
-        <v>172.822</v>
-      </c>
-      <c r="H2">
-        <v>2.2318699999999998</v>
-      </c>
-      <c r="I2">
-        <v>2.7182810000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
-        <v>0.69099999999999995</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="B3" s="4">
-        <v>83.968999999999994</v>
-      </c>
-      <c r="C3" s="2">
-        <f t="shared" ref="C3:C17" si="0">F3-G3*I3^(H3*A3)</f>
-        <v>85.628179467934274</v>
-      </c>
-      <c r="D3" s="3">
-        <f t="shared" ref="D3:D17" si="1">ROUND(C3,0)</f>
+        <v>26</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>0.441</v>
+      </c>
+      <c r="B4" s="4">
+        <v>69</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="B5" s="4">
         <v>86</v>
       </c>
-      <c r="F3">
-        <v>893.56500000000005</v>
-      </c>
-      <c r="G3">
-        <v>172.822</v>
-      </c>
-      <c r="H3">
-        <v>2.2318699999999998</v>
-      </c>
-      <c r="I3">
-        <v>2.7182810000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>0.56799999999999995</v>
-      </c>
-      <c r="B4" s="4">
-        <v>280.16300000000001</v>
-      </c>
-      <c r="C4" s="2">
-        <f t="shared" si="0"/>
-        <v>279.58402844176499</v>
-      </c>
-      <c r="D4" s="3">
-        <f t="shared" si="1"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="B6" s="4">
+        <v>121</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="B7" s="4">
+        <v>145</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="B8" s="4">
+        <v>176</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="B9" s="4">
+        <v>201</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="B10" s="4">
+        <v>198</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="B11" s="4">
+        <v>211</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>0.124</v>
+      </c>
+      <c r="B12" s="4">
+        <v>246</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="B13" s="4">
+        <v>243</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="B14" s="4">
         <v>280</v>
       </c>
-      <c r="F4">
-        <v>893.56500000000005</v>
-      </c>
-      <c r="G4">
-        <v>172.822</v>
-      </c>
-      <c r="H4">
-        <v>2.2318699999999998</v>
-      </c>
-      <c r="I4">
-        <v>2.7182810000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>0.58799999999999997</v>
-      </c>
-      <c r="B5" s="4">
-        <v>246.98699999999999</v>
-      </c>
-      <c r="C5" s="2">
-        <f t="shared" si="0"/>
-        <v>251.55664147462721</v>
-      </c>
-      <c r="D5" s="3">
-        <f t="shared" si="1"/>
-        <v>252</v>
-      </c>
-      <c r="F5">
-        <v>893.56500000000005</v>
-      </c>
-      <c r="G5">
-        <v>172.822</v>
-      </c>
-      <c r="H5">
-        <v>2.2318699999999998</v>
-      </c>
-      <c r="I5">
-        <v>2.7182810000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="B6" s="4">
-        <v>372.66199999999998</v>
-      </c>
-      <c r="C6" s="2">
-        <f t="shared" si="0"/>
-        <v>366.03970174686037</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" si="1"/>
-        <v>366</v>
-      </c>
-      <c r="F6">
-        <v>893.56500000000005</v>
-      </c>
-      <c r="G6">
-        <v>172.822</v>
-      </c>
-      <c r="H6">
-        <v>2.2318699999999998</v>
-      </c>
-      <c r="I6">
-        <v>2.7182810000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>0.51700000000000002</v>
-      </c>
-      <c r="B7" s="4">
-        <v>349.10599999999999</v>
-      </c>
-      <c r="C7" s="2">
-        <f t="shared" si="0"/>
-        <v>345.63989855576369</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" si="1"/>
-        <v>346</v>
-      </c>
-      <c r="F7">
-        <v>893.56500000000005</v>
-      </c>
-      <c r="G7">
-        <v>172.822</v>
-      </c>
-      <c r="H7">
-        <v>2.2318699999999998</v>
-      </c>
-      <c r="I7">
-        <v>2.7182810000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>0.59899999999999998</v>
-      </c>
-      <c r="B8" s="4">
-        <v>238.96799999999999</v>
-      </c>
-      <c r="C8" s="2">
-        <f t="shared" si="0"/>
-        <v>235.59990313994979</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="1"/>
-        <v>236</v>
-      </c>
-      <c r="F8">
-        <v>893.56500000000005</v>
-      </c>
-      <c r="G8">
-        <v>172.822</v>
-      </c>
-      <c r="H8">
-        <v>2.2318699999999998</v>
-      </c>
-      <c r="I8">
-        <v>2.7182810000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>0.48899999999999999</v>
-      </c>
-      <c r="B9" s="4">
-        <v>372.63099999999997</v>
-      </c>
-      <c r="C9" s="2">
-        <f t="shared" si="0"/>
-        <v>378.8330599193813</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="1"/>
-        <v>379</v>
-      </c>
-      <c r="F9">
-        <v>893.56500000000005</v>
-      </c>
-      <c r="G9">
-        <v>172.822</v>
-      </c>
-      <c r="H9">
-        <v>2.2318699999999998</v>
-      </c>
-      <c r="I9">
-        <v>2.7182810000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="B10" s="4">
-        <v>385.76499999999999</v>
-      </c>
-      <c r="C10" s="2">
-        <f t="shared" si="0"/>
-        <v>393.55306941921197</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" si="1"/>
-        <v>394</v>
-      </c>
-      <c r="F10">
-        <v>893.56500000000005</v>
-      </c>
-      <c r="G10">
-        <v>172.822</v>
-      </c>
-      <c r="H10">
-        <v>2.2318699999999998</v>
-      </c>
-      <c r="I10">
-        <v>2.7182810000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>0.42199999999999999</v>
-      </c>
-      <c r="B11" s="4">
-        <v>473.32100000000003</v>
-      </c>
-      <c r="C11" s="2">
-        <f t="shared" si="0"/>
-        <v>450.32516312890152</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="1"/>
-        <v>450</v>
-      </c>
-      <c r="F11">
-        <v>893.56500000000005</v>
-      </c>
-      <c r="G11">
-        <v>172.822</v>
-      </c>
-      <c r="H11">
-        <v>2.2318699999999998</v>
-      </c>
-      <c r="I11">
-        <v>2.7182810000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="B12" s="4">
-        <v>567.63800000000003</v>
-      </c>
-      <c r="C12" s="2">
-        <f t="shared" si="0"/>
-        <v>567.09276095035034</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" si="1"/>
-        <v>567</v>
-      </c>
-      <c r="F12">
-        <v>893.56500000000005</v>
-      </c>
-      <c r="G12">
-        <v>172.822</v>
-      </c>
-      <c r="H12">
-        <v>2.2318699999999998</v>
-      </c>
-      <c r="I12">
-        <v>2.7182810000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>0.40200000000000002</v>
-      </c>
-      <c r="B13" s="4">
-        <v>454.43299999999999</v>
-      </c>
-      <c r="C13" s="2">
-        <f t="shared" si="0"/>
-        <v>469.67515174240066</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="1"/>
-        <v>470</v>
-      </c>
-      <c r="F13">
-        <v>893.56500000000005</v>
-      </c>
-      <c r="G13">
-        <v>172.822</v>
-      </c>
-      <c r="H13">
-        <v>2.2318699999999998</v>
-      </c>
-      <c r="I13">
-        <v>2.7182810000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="B14" s="4">
-        <v>557.03899999999999</v>
-      </c>
-      <c r="C14" s="2">
-        <f t="shared" si="0"/>
-        <v>572.15362844891206</v>
-      </c>
-      <c r="D14" s="3">
-        <f t="shared" si="1"/>
-        <v>572</v>
-      </c>
-      <c r="F14">
-        <v>893.56500000000005</v>
-      </c>
-      <c r="G14">
-        <v>172.822</v>
-      </c>
-      <c r="H14">
-        <v>2.2318699999999998</v>
-      </c>
-      <c r="I14">
-        <v>2.7182810000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="B15" s="4">
-        <v>559.995</v>
-      </c>
-      <c r="C15" s="2">
-        <f t="shared" si="0"/>
-        <v>559.72440705472536</v>
-      </c>
-      <c r="D15" s="3">
-        <f t="shared" si="1"/>
-        <v>560</v>
-      </c>
-      <c r="F15">
-        <v>893.56500000000005</v>
-      </c>
-      <c r="G15">
-        <v>172.822</v>
-      </c>
-      <c r="H15">
-        <v>2.2318699999999998</v>
-      </c>
-      <c r="I15">
-        <v>2.7182810000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="B16" s="4">
-        <v>553.09299999999996</v>
-      </c>
-      <c r="C16" s="2">
-        <f t="shared" si="0"/>
-        <v>564.16513875788928</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" si="1"/>
-        <v>564</v>
-      </c>
-      <c r="F16">
-        <v>893.56500000000005</v>
-      </c>
-      <c r="G16">
-        <v>172.822</v>
-      </c>
-      <c r="H16">
-        <v>2.2318699999999998</v>
-      </c>
-      <c r="I16">
-        <v>2.7182810000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="B17" s="4">
-        <v>554.42200000000003</v>
-      </c>
-      <c r="C17" s="2">
-        <f t="shared" si="0"/>
-        <v>569.99436318132939</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" si="1"/>
-        <v>570</v>
-      </c>
-      <c r="F17">
-        <v>893.56500000000005</v>
-      </c>
-      <c r="G17">
-        <v>172.822</v>
-      </c>
-      <c r="H17">
-        <v>2.2318699999999998</v>
-      </c>
-      <c r="I17">
-        <v>2.7182810000000002</v>
-      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC62674A-204F-462D-A9D6-F588572CB595}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="B2" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="B3" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="B4" s="6">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>0.436</v>
+      </c>
+      <c r="B5" s="6">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="B6" s="6">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="B7" s="6">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="B8" s="6">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="B9" s="6">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="B10" s="6">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="B11" s="6">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="B12" s="6">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>0.128</v>
+      </c>
+      <c r="B13" s="6">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="B14" s="6">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="B15" s="6">
+        <v>342</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B98D9097-8BCB-4F7E-B0C9-6DA8AEE99887}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="13.6640625" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="B2" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="B3" s="6">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="B4" s="6">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="B5" s="6">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="B6" s="6">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="B7" s="6">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="B8" s="6">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>0.432</v>
+      </c>
+      <c r="B9" s="6">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>0.39</v>
+      </c>
+      <c r="B10" s="6">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>0.35</v>
+      </c>
+      <c r="B11" s="6">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>0.31</v>
+      </c>
+      <c r="B12" s="6">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="B13" s="6">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="B14" s="6">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="B15" s="6">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="B16" s="6">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>0.107</v>
+      </c>
+      <c r="B17" s="6">
+        <v>831</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8F78BC-BB45-4B99-919D-6946C9475ADC}">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10.6</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="D3" s="4">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="H3" s="6">
+        <v>27</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="J3" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="B4" s="1">
+        <v>143.19999999999999</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="D4" s="4">
+        <v>91</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="F4" s="4">
+        <v>26</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="H4" s="6">
+        <v>80</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="J4" s="6">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="B5" s="1">
+        <v>259.5</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="D5" s="4">
+        <v>145</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.441</v>
+      </c>
+      <c r="F5" s="4">
+        <v>69</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="H5" s="6">
+        <v>116</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="J5" s="6">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="B6" s="1">
+        <v>381.5</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.626</v>
+      </c>
+      <c r="D6" s="4">
+        <v>211</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="F6" s="4">
+        <v>86</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.436</v>
+      </c>
+      <c r="H6" s="6">
+        <v>156</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="J6" s="6">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="B7" s="1">
+        <v>560</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="D7" s="4">
+        <v>218</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="F7" s="4">
+        <v>121</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="H7" s="6">
+        <v>169</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="J7" s="6">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="B8" s="1">
+        <v>693</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="D8" s="4">
+        <v>292</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="F8" s="4">
+        <v>145</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="H8" s="6">
+        <v>193</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="J8" s="6">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="B9" s="1">
+        <v>737</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="D9" s="4">
+        <v>332</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="F9" s="4">
+        <v>176</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="H9" s="6">
+        <v>240</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="J9" s="6">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="B10" s="1">
+        <v>773</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="D10" s="4">
+        <v>388</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="F10" s="4">
+        <v>201</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="H10" s="6">
+        <v>248</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0.432</v>
+      </c>
+      <c r="J10" s="6">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B11" s="1">
+        <v>829</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="D11" s="4">
+        <v>418</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="F11" s="4">
+        <v>198</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="H11" s="6">
+        <v>283</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0.39</v>
+      </c>
+      <c r="J11" s="6">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="B12" s="1">
+        <v>856</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="D12" s="4">
+        <v>460</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F12" s="4">
+        <v>211</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="H12" s="6">
+        <v>285</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0.35</v>
+      </c>
+      <c r="J12" s="6">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="B13" s="1">
+        <v>896</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="D13" s="4">
+        <v>502</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.124</v>
+      </c>
+      <c r="F13" s="4">
+        <v>246</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="H13" s="6">
+        <v>294</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0.31</v>
+      </c>
+      <c r="J13" s="6">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="B14" s="1">
+        <v>923</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="D14" s="4">
+        <v>554</v>
+      </c>
+      <c r="E14" s="4">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="F14" s="4">
+        <v>243</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0.128</v>
+      </c>
+      <c r="H14" s="6">
+        <v>313</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="J14" s="6">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B15" s="1">
+        <v>939</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.31</v>
+      </c>
+      <c r="D15" s="4">
+        <v>589</v>
+      </c>
+      <c r="E15" s="4">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F15" s="4">
+        <v>280</v>
+      </c>
+      <c r="G15" s="7">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="H15" s="6">
+        <v>318</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="J15" s="6">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="B16" s="1">
+        <v>941</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="D16" s="4">
+        <v>592</v>
+      </c>
+      <c r="G16" s="7">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="H16" s="6">
+        <v>342</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="J16" s="6">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="B17" s="1">
+        <v>942</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="D17" s="4">
+        <v>620</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="J17" s="6">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="B18" s="1">
+        <v>943</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="D18" s="4">
+        <v>596</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0.107</v>
+      </c>
+      <c r="J18" s="6">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="B19" s="1">
+        <v>944</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="D19" s="4">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="B21" s="1">
+        <v>945</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>